--- a/334-simulateurs-obsolètes/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/334-simulateurs-obsolètes/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T08:06:13+00:00</t>
+    <t>2025-06-12T08:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
